--- a/ig/sd-pays-de-recrutement/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-pays-de-recrutement/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:07:53+00:00</t>
+    <t>2023-07-27T08:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
